--- a/src/experiment/results/experiment_results_ionosphere.xlsx
+++ b/src/experiment/results/experiment_results_ionosphere.xlsx
@@ -529,7 +529,7 @@
         <v>0.8406332565600823</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04840085506439209</v>
+        <v>0.06208879947662353</v>
       </c>
       <c r="H2" t="n">
         <v>11.9</v>
@@ -573,7 +573,7 @@
         <v>0.7831462486268121</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04876232147216797</v>
+        <v>0.06523933410644531</v>
       </c>
       <c r="H3" t="n">
         <v>14.9</v>
@@ -617,7 +617,7 @@
         <v>0.7969706103707965</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04335510730743408</v>
+        <v>0.05585827827453613</v>
       </c>
       <c r="H4" t="n">
         <v>12.6</v>
@@ -661,7 +661,7 @@
         <v>0.7064231785393515</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04903593063354492</v>
+        <v>0.06468312740325928</v>
       </c>
       <c r="H5" t="n">
         <v>13.2</v>
@@ -705,7 +705,7 @@
         <v>0.8465394965608528</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06509723663330078</v>
+        <v>0.0896224021911621</v>
       </c>
       <c r="H6" t="n">
         <v>34</v>
@@ -749,7 +749,7 @@
         <v>0.7879902630623351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06627821922302246</v>
+        <v>0.08507628440856933</v>
       </c>
       <c r="H7" t="n">
         <v>34</v>
@@ -793,7 +793,7 @@
         <v>0.7975541192522536</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06322610378265381</v>
+        <v>0.06764919757843017</v>
       </c>
       <c r="H8" t="n">
         <v>34</v>
@@ -837,7 +837,7 @@
         <v>0.7111315946211476</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06209595203399658</v>
+        <v>0.08079097270965577</v>
       </c>
       <c r="H9" t="n">
         <v>34</v>
@@ -881,7 +881,7 @@
         <v>0.8318654528144016</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1069751739501953</v>
+        <v>0.1281315088272095</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -927,7 +927,7 @@
         <v>0.7752437210854983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1185626268386841</v>
+        <v>0.3116796255111695</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -973,7 +973,7 @@
         <v>0.8074116780141238</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07290377616882324</v>
+        <v>0.08245944976806641</v>
       </c>
       <c r="H12" t="n">
         <v>11</v>
@@ -1019,7 +1019,7 @@
         <v>0.7271468946891193</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1066083431243896</v>
+        <v>0.1109833002090454</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -1065,7 +1065,7 @@
         <v>0.8459970645946617</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1402964115142822</v>
+        <v>0.1395891904830933</v>
       </c>
       <c r="H14" t="n">
         <v>11.8</v>
@@ -1113,7 +1113,7 @@
         <v>0.78693570508184</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1309972763061523</v>
+        <v>0.1407287120819092</v>
       </c>
       <c r="H15" t="n">
         <v>13.7</v>
@@ -1161,7 +1161,7 @@
         <v>0.7900483779198515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1249836921691894</v>
+        <v>0.1232489347457886</v>
       </c>
       <c r="H16" t="n">
         <v>11.9</v>
@@ -1209,7 +1209,7 @@
         <v>0.7161624549671031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1700360774993896</v>
+        <v>0.1816541194915771</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -1257,7 +1257,7 @@
         <v>0.8400795556605148</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1216847896575928</v>
+        <v>0.1279954195022583</v>
       </c>
       <c r="H18" t="n">
         <v>34</v>
@@ -1303,7 +1303,7 @@
         <v>0.7814536502050206</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1283068418502808</v>
+        <v>0.1272818088531494</v>
       </c>
       <c r="H19" t="n">
         <v>34</v>
@@ -1349,7 +1349,7 @@
         <v>0.7900483779198515</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1224537372589111</v>
+        <v>0.1244228363037109</v>
       </c>
       <c r="H20" t="n">
         <v>34</v>
@@ -1395,7 +1395,7 @@
         <v>0.6866894596577223</v>
       </c>
       <c r="G21" t="n">
-        <v>0.121914005279541</v>
+        <v>0.1152779579162598</v>
       </c>
       <c r="H21" t="n">
         <v>34</v>
@@ -1441,7 +1441,7 @@
         <v>0.8384286979768266</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4351406335830689</v>
+        <v>0.4313918590545655</v>
       </c>
       <c r="H22" t="n">
         <v>9.6</v>
@@ -1485,7 +1485,7 @@
         <v>0.7537840196944099</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4402683734893799</v>
+        <v>0.4511870622634888</v>
       </c>
       <c r="H23" t="n">
         <v>10.9</v>
@@ -1529,7 +1529,7 @@
         <v>0.7814234639831367</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4366856098175049</v>
+        <v>0.4337826490402222</v>
       </c>
       <c r="H24" t="n">
         <v>7.8</v>
@@ -1573,7 +1573,7 @@
         <v>0.7446093704193362</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4474345207214355</v>
+        <v>0.4418984889984131</v>
       </c>
       <c r="H25" t="n">
         <v>10.1</v>
@@ -1617,7 +1617,7 @@
         <v>0.8483456772770237</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9566165685653687</v>
+        <v>0.9579460620880127</v>
       </c>
       <c r="H26" t="n">
         <v>7.9</v>
@@ -1663,7 +1663,7 @@
         <v>0.7831462486268121</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7180119037628174</v>
+        <v>0.7187867164611816</v>
       </c>
       <c r="H27" t="n">
         <v>14.9</v>
@@ -1709,7 +1709,7 @@
         <v>0.7973686840767951</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9720908880233765</v>
+        <v>0.9694306373596191</v>
       </c>
       <c r="H28" t="n">
         <v>8</v>
@@ -1755,7 +1755,7 @@
         <v>0.7128905990137042</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9898522853851318</v>
+        <v>0.9938440799713135</v>
       </c>
       <c r="H29" t="n">
         <v>8</v>

--- a/src/experiment/results/experiment_results_ionosphere.xlsx
+++ b/src/experiment/results/experiment_results_ionosphere.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,26 @@
           <t>n_features</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top 10 Correlation Features</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Count</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Ratio</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Common Features</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +568,22 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3, 5, 1, 7, 9, 31, 33, 29, 21, 8</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 8, 9</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -592,6 +628,22 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 1, 9, 31, 21, 33, 15, 29</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 21, 31</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -636,6 +688,22 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 31, 33, 15, 13, 11</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 15, 31</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -680,6 +748,22 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 33, 31, 15, 11, 13</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 11, 33</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +808,22 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3, 5, 1, 7, 9, 31, 33, 29, 21, 8</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 8, 9, 21, 29, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -768,6 +868,22 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 1, 9, 31, 21, 33, 15, 29</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 15, 21, 29, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -812,6 +928,22 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 31, 33, 15, 13, 11</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 11, 13, 15, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -856,6 +988,22 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 33, 31, 15, 11, 13</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 11, 13, 15, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -902,6 +1050,22 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3, 5, 1, 7, 9, 31, 33, 29, 21, 8</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -948,6 +1112,22 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 1, 9, 31, 21, 33, 15, 29</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 9, 21, 31</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -994,6 +1174,22 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 31, 33, 15, 13, 11</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 15, 31</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1040,6 +1236,22 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 33, 31, 15, 11, 13</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1088,6 +1300,22 @@
         <v>0.1</v>
       </c>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3, 5, 1, 7, 9, 31, 33, 29, 21, 8</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5455</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 8, 9</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1136,6 +1364,22 @@
         <v>0.1</v>
       </c>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 1, 9, 31, 21, 33, 15, 29</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 21, 31</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1184,6 +1428,22 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 31, 33, 15, 13, 11</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 15, 31</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1232,6 +1492,22 @@
         <v>0.1</v>
       </c>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 33, 31, 15, 11, 13</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1278,6 +1554,22 @@
         <v>0.1</v>
       </c>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>3, 5, 1, 7, 9, 31, 33, 29, 21, 8</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 8, 9, 21, 29, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1324,6 +1616,22 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 1, 9, 31, 21, 33, 15, 29</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 15, 21, 29, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1370,6 +1678,22 @@
         <v>0.1</v>
       </c>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 31, 33, 15, 13, 11</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 11, 13, 15, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1416,6 +1740,22 @@
         <v>0.5</v>
       </c>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 33, 31, 15, 11, 13</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 11, 13, 15, 31, 33</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1460,6 +1800,22 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>3, 5, 1, 7, 9, 31, 33, 29, 21, 8</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 8, 9</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1504,6 +1860,22 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 1, 9, 31, 21, 33, 15, 29</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 21, 31</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1548,6 +1920,22 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 31, 33, 15, 13, 11</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 31</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1592,6 +1980,22 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 33, 31, 15, 11, 13</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 33</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1638,6 +2042,22 @@
       <c r="N26" t="n">
         <v>8</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>3, 5, 1, 7, 9, 31, 33, 29, 21, 8</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 8</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1684,6 +2104,22 @@
       <c r="N27" t="n">
         <v>17</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3, 5, 7, 1, 9, 31, 21, 33, 15, 29</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 9, 21, 31</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1730,6 +2166,22 @@
       <c r="N28" t="n">
         <v>8</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 31, 33, 15, 13, 11</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 15, 31</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1776,6 +2228,22 @@
       <c r="N29" t="n">
         <v>8</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>5, 3, 7, 1, 9, 33, 31, 15, 11, 13</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1, 3, 5, 7, 33</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
